--- a/NET.xlsx
+++ b/NET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0BC505-8487-4ED3-A1BB-1408DC70B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDBFACA-260D-44D6-97B6-4CF9C8C71AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42165" yWindow="1710" windowWidth="22830" windowHeight="17970" activeTab="1" xr2:uid="{75CAC307-FAB2-4E5B-9E86-2212ECF6A0BB}"/>
+    <workbookView xWindow="-40215" yWindow="720" windowWidth="25590" windowHeight="11985" activeTab="1" xr2:uid="{75CAC307-FAB2-4E5B-9E86-2212ECF6A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Price</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>SBC</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
   </si>
 </sst>
 </file>
@@ -195,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,7 +231,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,16 +254,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25066</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36972</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30079</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25066</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36972</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:rowOff>145695</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -264,8 +278,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7685171" y="30079"/>
-          <a:ext cx="0" cy="4155908"/>
+          <a:off x="8865456" y="0"/>
+          <a:ext cx="0" cy="4646258"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -290,16 +304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>22058</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>22058</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145383</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -314,8 +328,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12575005" y="0"/>
-          <a:ext cx="0" cy="4637172"/>
+          <a:off x="16137167" y="0"/>
+          <a:ext cx="0" cy="7084219"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -661,7 +675,7 @@
   <dimension ref="M2:O9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>83.39</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="13:15" x14ac:dyDescent="0.2">
@@ -692,7 +706,7 @@
       </c>
       <c r="N4" s="2">
         <f>+N2*N3</f>
-        <v>28494.590988259999</v>
+        <v>50230.301897999998</v>
       </c>
     </row>
     <row r="5" spans="13:15" x14ac:dyDescent="0.2">
@@ -724,7 +738,7 @@
       </c>
       <c r="N7" s="2">
         <f>+N4-N5+N6</f>
-        <v>28022.535988259999</v>
+        <v>49758.246897999998</v>
       </c>
     </row>
     <row r="9" spans="13:15" x14ac:dyDescent="0.2">
@@ -739,13 +753,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E29B1-4FD7-4C00-85AF-3C368E834D1C}">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC12" sqref="AC12"/>
+      <selection pane="bottomRight" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -754,15 +768,15 @@
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="4"/>
-    <col min="13" max="14" width="9.140625" style="3"/>
+    <col min="13" max="17" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -799,76 +813,88 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2">
         <v>2017</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>2018</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>2019</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>2020</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <v>2021</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>2022</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>2023</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>2024</v>
       </c>
-      <c r="Y2">
-        <f>+X2+1</f>
+      <c r="AB2">
+        <f>+AA2+1</f>
         <v>2025</v>
       </c>
-      <c r="Z2">
-        <f t="shared" ref="Z2:AI2" si="0">+Y2+1</f>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AL2" si="0">+AB2+1</f>
         <v>2026</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -899,58 +925,60 @@
         <v>400.99599999999998</v>
       </c>
       <c r="M3" s="5">
-        <f>+I3*1.3</f>
-        <v>436.28390000000002</v>
+        <v>430.08199999999999</v>
       </c>
       <c r="N3" s="5">
-        <f>+J3*1.3</f>
-        <v>471.21490000000006</v>
-      </c>
-      <c r="S3" s="8">
+        <f>1669.926-M3-L3-K3</f>
+        <v>460.24600000000009</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="V3" s="8">
         <v>287.02199999999999</v>
       </c>
-      <c r="T3" s="8">
+      <c r="W3" s="8">
         <v>431.05900000000003</v>
       </c>
-      <c r="U3" s="8">
+      <c r="X3" s="8">
         <v>656.42600000000004</v>
       </c>
-      <c r="V3" s="8">
+      <c r="Y3" s="8">
         <v>975.24099999999999</v>
       </c>
-      <c r="W3" s="8">
+      <c r="Z3" s="8">
         <v>1296.7449999999999</v>
       </c>
-      <c r="X3" s="8">
+      <c r="AA3" s="8">
         <f>SUM(K3:N3)</f>
-        <v>1687.0967999999998</v>
-      </c>
-      <c r="Y3" s="8">
-        <f>+X3*1.3</f>
-        <v>2193.2258399999996</v>
-      </c>
-      <c r="Z3" s="8">
-        <f>+Y3*1.2</f>
-        <v>2631.8710079999996</v>
-      </c>
-      <c r="AA3" s="8">
-        <f>+Z3*1.2</f>
-        <v>3158.2452095999993</v>
+        <v>1669.9259999999999</v>
       </c>
       <c r="AB3" s="8">
-        <f>+AA3*1.1</f>
-        <v>3474.0697305599997</v>
+        <f>+AA3*1.3</f>
+        <v>2170.9038</v>
       </c>
       <c r="AC3" s="8">
-        <f>+AB3*1.1</f>
-        <v>3821.4767036160001</v>
+        <f>+AB3*1.2</f>
+        <v>2605.0845599999998</v>
       </c>
       <c r="AD3" s="8">
-        <f>+AC3*1.1</f>
-        <v>4203.6243739776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AC3*1.2</f>
+        <v>3126.1014719999998</v>
+      </c>
+      <c r="AE3" s="8">
+        <f>+AD3*1.1</f>
+        <v>3438.7116192000003</v>
+      </c>
+      <c r="AF3" s="8">
+        <f>+AE3*1.1</f>
+        <v>3782.5827811200006</v>
+      </c>
+      <c r="AG3" s="8">
+        <f>+AF3*1.1</f>
+        <v>4160.8410592320006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -981,153 +1009,158 @@
         <v>89.010999999999996</v>
       </c>
       <c r="M4" s="4">
-        <f>+M3-M5</f>
-        <v>104.70813600000002</v>
+        <v>95.966999999999999</v>
       </c>
       <c r="N4" s="4">
-        <f>+N3-N5</f>
-        <v>113.09157600000003</v>
-      </c>
-      <c r="S4" s="2">
+        <f>378.702-M4-L4-K4</f>
+        <v>108.68600000000002</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="V4" s="2">
         <v>63.423000000000002</v>
       </c>
-      <c r="T4" s="2">
+      <c r="W4" s="2">
         <v>101.05500000000001</v>
       </c>
-      <c r="U4" s="2">
+      <c r="X4" s="2">
         <v>147.13399999999999</v>
       </c>
-      <c r="V4" s="2">
+      <c r="Y4" s="2">
         <v>232.61</v>
       </c>
-      <c r="W4" s="2">
+      <c r="Z4" s="2">
         <v>307.005</v>
       </c>
-      <c r="X4" s="10">
+      <c r="AA4" s="2">
         <f>SUM(K4:N4)</f>
-        <v>391.84871200000003</v>
-      </c>
-      <c r="Y4" s="2">
-        <f t="shared" ref="Y4:AC4" si="1">+Y3-Y5</f>
-        <v>504.44194319999997</v>
-      </c>
-      <c r="Z4" s="2">
-        <f t="shared" si="1"/>
-        <v>605.33033183999987</v>
-      </c>
-      <c r="AA4" s="2">
-        <f t="shared" si="1"/>
-        <v>726.39639820799994</v>
+        <v>378.702</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="1"/>
-        <v>799.03603802879979</v>
+        <f t="shared" ref="AB4:AF4" si="1">+AB3-AB5</f>
+        <v>499.30787400000008</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="1"/>
-        <v>878.93964183168009</v>
+        <v>599.16944879999983</v>
       </c>
       <c r="AD4" s="2">
-        <f>+AD3-AD5</f>
-        <v>966.8336060148481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>719.00333855999997</v>
+      </c>
+      <c r="AE4" s="2">
+        <f t="shared" si="1"/>
+        <v>790.90367241600006</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" si="1"/>
+        <v>869.9940396576003</v>
+      </c>
+      <c r="AG4" s="2">
+        <f>+AG3-AG5</f>
+        <v>956.99344362336024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <f>+E3-E4</f>
+        <f t="shared" ref="E5:L5" si="2">+E3-E4</f>
         <v>191.89</v>
       </c>
       <c r="F5" s="4">
-        <f>+F3-F4</f>
+        <f t="shared" si="2"/>
         <v>206.91199999999998</v>
       </c>
       <c r="G5" s="4">
-        <f>+G3-G4</f>
+        <f t="shared" si="2"/>
         <v>219.74299999999999</v>
       </c>
       <c r="H5" s="4">
-        <f>+H3-H4</f>
+        <f t="shared" si="2"/>
         <v>233.27300000000002</v>
       </c>
       <c r="I5" s="4">
-        <f>+I3-I4</f>
+        <f t="shared" si="2"/>
         <v>257.53399999999999</v>
       </c>
       <c r="J5" s="4">
-        <f>+J3-J4</f>
+        <f t="shared" si="2"/>
         <v>279.19</v>
       </c>
       <c r="K5" s="4">
-        <f>+K3-K4</f>
+        <f t="shared" si="2"/>
         <v>293.56399999999996</v>
       </c>
       <c r="L5" s="4">
-        <f>+L3-L4</f>
+        <f t="shared" si="2"/>
         <v>311.98500000000001</v>
       </c>
       <c r="M5" s="4">
-        <f>+M3*0.76</f>
-        <v>331.57576399999999</v>
+        <f>+M3-M4</f>
+        <v>334.11500000000001</v>
       </c>
       <c r="N5" s="4">
-        <f>+N3*0.76</f>
-        <v>358.12332400000003</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" ref="S5" si="2">+S3-S4</f>
+        <f>+N3-N4</f>
+        <v>351.56000000000006</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="V5" s="2">
+        <f t="shared" ref="V5" si="3">+V3-V4</f>
         <v>223.59899999999999</v>
-      </c>
-      <c r="T5" s="2">
-        <f>+T3-T4</f>
-        <v>330.00400000000002</v>
-      </c>
-      <c r="U5" s="2">
-        <f>+U3-U4</f>
-        <v>509.29200000000003</v>
-      </c>
-      <c r="V5" s="2">
-        <f>+V3-V4</f>
-        <v>742.63099999999997</v>
       </c>
       <c r="W5" s="2">
         <f>+W3-W4</f>
-        <v>989.7399999999999</v>
+        <v>330.00400000000002</v>
       </c>
       <c r="X5" s="2">
         <f>+X3-X4</f>
-        <v>1295.2480879999998</v>
+        <v>509.29200000000003</v>
       </c>
       <c r="Y5" s="2">
-        <f>+Y3*0.77</f>
-        <v>1688.7838967999996</v>
+        <f>+Y3-Y4</f>
+        <v>742.63099999999997</v>
       </c>
       <c r="Z5" s="2">
-        <f>+Z3*0.77</f>
-        <v>2026.5406761599997</v>
+        <f>+Z3-Z4</f>
+        <v>989.7399999999999</v>
       </c>
       <c r="AA5" s="2">
-        <f>+AA3*0.77</f>
-        <v>2431.8488113919993</v>
+        <f>+AA3-AA4</f>
+        <v>1291.2239999999999</v>
       </c>
       <c r="AB5" s="2">
-        <f>+AB3*0.77</f>
-        <v>2675.0336925311999</v>
+        <f t="shared" ref="AB5:AG5" si="4">+AB3*0.77</f>
+        <v>1671.595926</v>
       </c>
       <c r="AC5" s="2">
-        <f>+AC3*0.77</f>
-        <v>2942.53706178432</v>
+        <f t="shared" si="4"/>
+        <v>2005.9151112</v>
       </c>
       <c r="AD5" s="2">
-        <f>+AD3*0.77</f>
-        <v>3236.7907679627519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2407.0981334399999</v>
+      </c>
+      <c r="AE5" s="2">
+        <f t="shared" si="4"/>
+        <v>2647.8079467840003</v>
+      </c>
+      <c r="AF5" s="2">
+        <f t="shared" si="4"/>
+        <v>2912.5887414624003</v>
+      </c>
+      <c r="AG5" s="2">
+        <f t="shared" si="4"/>
+        <v>3203.8476156086404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1158,59 +1191,61 @@
         <v>174.501</v>
       </c>
       <c r="M6" s="4">
-        <f>+I6*1.1</f>
-        <v>165.2354</v>
+        <v>185.221</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" ref="N6:N8" si="3">+J6*1.1</f>
-        <v>181.73540000000003</v>
-      </c>
-      <c r="S6" s="2">
+        <f>745.791-M6-L6-K6</f>
+        <v>191.96700000000007</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="V6" s="2">
         <v>159.298</v>
       </c>
-      <c r="T6" s="2">
+      <c r="W6" s="2">
         <v>217.875</v>
       </c>
-      <c r="U6" s="2">
+      <c r="X6" s="2">
         <v>328.065</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Y6" s="2">
         <v>465.762</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Z6" s="2">
         <f>SUM(G6:J6)</f>
         <v>599.11699999999996</v>
       </c>
-      <c r="X6" s="10">
-        <f t="shared" ref="X6:X8" si="4">SUM(K6:N6)</f>
-        <v>715.57380000000001</v>
-      </c>
-      <c r="Y6" s="2">
-        <f>+X6*1.1</f>
-        <v>787.13118000000009</v>
-      </c>
-      <c r="Z6" s="2">
-        <f t="shared" ref="Z6:AD6" si="5">+Y6*1.1</f>
-        <v>865.84429800000021</v>
-      </c>
       <c r="AA6" s="2">
-        <f t="shared" si="5"/>
-        <v>952.42872780000027</v>
+        <f t="shared" ref="AA6:AA8" si="5">SUM(K6:N6)</f>
+        <v>745.79100000000017</v>
       </c>
       <c r="AB6" s="2">
-        <f t="shared" si="5"/>
-        <v>1047.6716005800004</v>
+        <f>+AA6*1.1</f>
+        <v>820.37010000000021</v>
       </c>
       <c r="AC6" s="2">
-        <f t="shared" si="5"/>
-        <v>1152.4387606380005</v>
+        <f t="shared" ref="AC6:AG6" si="6">+AB6*1.1</f>
+        <v>902.40711000000033</v>
       </c>
       <c r="AD6" s="2">
-        <f t="shared" si="5"/>
-        <v>1267.6826367018007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>992.64782100000048</v>
+      </c>
+      <c r="AE6" s="2">
+        <f t="shared" si="6"/>
+        <v>1091.9126031000005</v>
+      </c>
+      <c r="AF6" s="2">
+        <f t="shared" si="6"/>
+        <v>1201.1038634100007</v>
+      </c>
+      <c r="AG6" s="2">
+        <f t="shared" si="6"/>
+        <v>1321.2142497510008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1241,59 +1276,61 @@
         <v>102.547</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" ref="M7:M8" si="6">+I7*1.1</f>
-        <v>99.652300000000011</v>
+        <v>110.911</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="3"/>
-        <v>106.0411</v>
-      </c>
-      <c r="S7" s="2">
+        <f>421.374-M7-L7-K7</f>
+        <v>120.21300000000002</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="V7" s="2">
         <v>90.668999999999997</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>127.14400000000001</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>189.40799999999999</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>298.303</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <f>SUM(G7:J7)</f>
         <v>358.14300000000003</v>
       </c>
-      <c r="X7" s="10">
-        <f t="shared" si="4"/>
-        <v>395.9434</v>
-      </c>
-      <c r="Y7" s="2">
-        <f t="shared" ref="Y7:AD7" si="7">+X7*1.1</f>
-        <v>435.53774000000004</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" si="7"/>
-        <v>479.09151400000007</v>
-      </c>
       <c r="AA7" s="2">
-        <f t="shared" si="7"/>
-        <v>527.00066540000012</v>
+        <f t="shared" si="5"/>
+        <v>421.37400000000002</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="7"/>
-        <v>579.7007319400002</v>
+        <f t="shared" ref="AB7:AG7" si="7">+AA7*1.1</f>
+        <v>463.51140000000004</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="7"/>
-        <v>637.67080513400026</v>
+        <v>509.86254000000008</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="7"/>
-        <v>701.43788564740032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>560.84879400000011</v>
+      </c>
+      <c r="AE7" s="2">
+        <f t="shared" si="7"/>
+        <v>616.9336734000002</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" si="7"/>
+        <v>678.62704074000033</v>
+      </c>
+      <c r="AG7" s="2">
+        <f t="shared" si="7"/>
+        <v>746.48974481400046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1324,249 +1361,257 @@
         <v>69.635000000000005</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="6"/>
-        <v>61.532900000000005</v>
+        <v>68.777000000000001</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="3"/>
-        <v>66.444400000000016</v>
-      </c>
-      <c r="S8" s="2">
+        <f>278.52-M8-L8-K8</f>
+        <v>73.799000000000007</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="V8" s="2">
         <v>81.578000000000003</v>
       </c>
-      <c r="T8" s="2">
+      <c r="W8" s="2">
         <v>91.753</v>
       </c>
-      <c r="U8" s="2">
+      <c r="X8" s="2">
         <v>119.503</v>
       </c>
-      <c r="V8" s="2">
+      <c r="Y8" s="2">
         <v>179.76900000000001</v>
       </c>
-      <c r="W8" s="2">
+      <c r="Z8" s="2">
         <f>SUM(G8:J8)</f>
         <v>217.965</v>
       </c>
-      <c r="X8" s="10">
-        <f t="shared" si="4"/>
-        <v>263.92130000000003</v>
-      </c>
-      <c r="Y8" s="2">
-        <f>+Y3*0.1</f>
-        <v>219.32258399999998</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" ref="Z8:AD8" si="8">+Z3*0.1</f>
-        <v>263.1871008</v>
-      </c>
       <c r="AA8" s="2">
-        <f t="shared" si="8"/>
-        <v>315.82452095999997</v>
+        <f t="shared" si="5"/>
+        <v>278.52</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="8"/>
-        <v>347.40697305599997</v>
+        <f>+AB3*0.1</f>
+        <v>217.09038000000001</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" si="8"/>
-        <v>382.14767036160003</v>
+        <f t="shared" ref="AC8:AG8" si="8">+AC3*0.1</f>
+        <v>260.50845599999997</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="8"/>
-        <v>420.36243739776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>312.61014720000003</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="8"/>
+        <v>343.87116192000008</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="8"/>
+        <v>378.25827811200008</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" si="8"/>
+        <v>416.08410592320007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <f>SUM(E6:E8)</f>
+        <f t="shared" ref="E9:N9" si="9">SUM(E6:E8)</f>
         <v>237.83699999999999</v>
       </c>
       <c r="F9" s="4">
-        <f>SUM(F6:F8)</f>
+        <f t="shared" si="9"/>
         <v>257.60300000000001</v>
       </c>
       <c r="G9" s="4">
-        <f>SUM(G6:G8)</f>
+        <f t="shared" si="9"/>
         <v>267.01500000000004</v>
       </c>
       <c r="H9" s="4">
-        <f>SUM(H6:H8)</f>
+        <f t="shared" si="9"/>
         <v>289.44499999999999</v>
       </c>
       <c r="I9" s="4">
-        <f>SUM(I6:I8)</f>
+        <f t="shared" si="9"/>
         <v>296.74600000000004</v>
       </c>
       <c r="J9" s="4">
-        <f>SUM(J6:J8)</f>
+        <f t="shared" si="9"/>
         <v>322.01900000000001</v>
       </c>
       <c r="K9" s="4">
-        <f>SUM(K6:K8)</f>
+        <f t="shared" si="9"/>
         <v>348.11400000000003</v>
       </c>
       <c r="L9" s="4">
-        <f>SUM(L6:L8)</f>
+        <f t="shared" si="9"/>
         <v>346.68299999999999</v>
       </c>
       <c r="M9" s="4">
-        <f>SUM(M6:M8)</f>
-        <v>326.42059999999998</v>
+        <f t="shared" si="9"/>
+        <v>364.90899999999999</v>
       </c>
       <c r="N9" s="4">
-        <f>SUM(N6:N8)</f>
-        <v>354.22090000000009</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" ref="S9" si="9">SUM(S6:S8)</f>
+        <f t="shared" si="9"/>
+        <v>385.97900000000004</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="V9" s="2">
+        <f t="shared" ref="V9" si="10">SUM(V6:V8)</f>
         <v>331.54499999999996</v>
       </c>
-      <c r="T9" s="2">
-        <f>SUM(T6:T8)</f>
+      <c r="W9" s="2">
+        <f>SUM(W6:W8)</f>
         <v>436.77199999999999</v>
       </c>
-      <c r="U9" s="2">
-        <f>SUM(U6:U8)</f>
+      <c r="X9" s="2">
+        <f>SUM(X6:X8)</f>
         <v>636.976</v>
       </c>
-      <c r="V9" s="2">
-        <f>SUM(V6:V8)</f>
+      <c r="Y9" s="2">
+        <f>SUM(Y6:Y8)</f>
         <v>943.83400000000006</v>
       </c>
-      <c r="W9" s="2">
-        <f t="shared" ref="W9" si="10">SUM(W6:W8)</f>
+      <c r="Z9" s="2">
+        <f t="shared" ref="Z9" si="11">SUM(Z6:Z8)</f>
         <v>1175.2249999999999</v>
       </c>
-      <c r="X9" s="2">
-        <f t="shared" ref="X9" si="11">SUM(X6:X8)</f>
-        <v>1375.4385</v>
-      </c>
-      <c r="Y9" s="2">
-        <f t="shared" ref="Y9" si="12">SUM(Y6:Y8)</f>
-        <v>1441.9915040000001</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" ref="Z9" si="13">SUM(Z6:Z8)</f>
-        <v>1608.1229128000002</v>
-      </c>
       <c r="AA9" s="2">
-        <f t="shared" ref="AA9" si="14">SUM(AA6:AA8)</f>
-        <v>1795.2539141600005</v>
+        <f t="shared" ref="AA9" si="12">SUM(AA6:AA8)</f>
+        <v>1445.6850000000002</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" ref="AB9" si="15">SUM(AB6:AB8)</f>
-        <v>1974.7793055760005</v>
+        <f t="shared" ref="AB9" si="13">SUM(AB6:AB8)</f>
+        <v>1500.9718800000003</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" ref="AC9" si="16">SUM(AC6:AC8)</f>
-        <v>2172.2572361336006</v>
+        <f t="shared" ref="AC9" si="14">SUM(AC6:AC8)</f>
+        <v>1672.7781060000004</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" ref="AD9" si="17">SUM(AD6:AD8)</f>
-        <v>2389.4829597469611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AD9" si="15">SUM(AD6:AD8)</f>
+        <v>1866.1067622000005</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" ref="AE9" si="16">SUM(AE6:AE8)</f>
+        <v>2052.7174384200007</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" ref="AF9" si="17">SUM(AF6:AF8)</f>
+        <v>2257.9891822620011</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" ref="AG9" si="18">SUM(AG6:AG8)</f>
+        <v>2483.7881004882015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
-        <f>+E5-E9</f>
+        <f t="shared" ref="E10:N10" si="19">+E5-E9</f>
         <v>-45.947000000000003</v>
       </c>
       <c r="F10" s="4">
-        <f>+F5-F9</f>
+        <f t="shared" si="19"/>
         <v>-50.691000000000031</v>
       </c>
       <c r="G10" s="4">
-        <f>+G5-G9</f>
+        <f t="shared" si="19"/>
         <v>-47.272000000000048</v>
       </c>
       <c r="H10" s="4">
-        <f>+H5-H9</f>
+        <f t="shared" si="19"/>
         <v>-56.171999999999969</v>
       </c>
       <c r="I10" s="4">
-        <f>+I5-I9</f>
+        <f t="shared" si="19"/>
         <v>-39.212000000000046</v>
       </c>
       <c r="J10" s="4">
-        <f>+J5-J9</f>
+        <f t="shared" si="19"/>
         <v>-42.829000000000008</v>
       </c>
       <c r="K10" s="4">
-        <f>+K5-K9</f>
+        <f t="shared" si="19"/>
         <v>-54.550000000000068</v>
       </c>
       <c r="L10" s="4">
-        <f>+L5-L9</f>
+        <f t="shared" si="19"/>
         <v>-34.697999999999979</v>
       </c>
       <c r="M10" s="4">
-        <f>+M5-M9</f>
-        <v>5.1551640000000134</v>
+        <f t="shared" si="19"/>
+        <v>-30.793999999999983</v>
       </c>
       <c r="N10" s="4">
-        <f>+N5-N9</f>
-        <v>3.9024239999999395</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" ref="S10" si="18">+S5-S9</f>
+        <f t="shared" si="19"/>
+        <v>-34.418999999999983</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="V10" s="2">
+        <f t="shared" ref="V10" si="20">+V5-V9</f>
         <v>-107.94599999999997</v>
       </c>
-      <c r="T10" s="2">
-        <f>+T5-T9</f>
+      <c r="W10" s="2">
+        <f>+W5-W9</f>
         <v>-106.76799999999997</v>
       </c>
-      <c r="U10" s="2">
-        <f>+U5-U9</f>
+      <c r="X10" s="2">
+        <f>+X5-X9</f>
         <v>-127.68399999999997</v>
       </c>
-      <c r="V10" s="2">
-        <f>+V5-V9</f>
+      <c r="Y10" s="2">
+        <f>+Y5-Y9</f>
         <v>-201.20300000000009</v>
       </c>
-      <c r="W10" s="2">
-        <f t="shared" ref="W10" si="19">+W5-W9</f>
+      <c r="Z10" s="2">
+        <f t="shared" ref="Z10" si="21">+Z5-Z9</f>
         <v>-185.48500000000001</v>
       </c>
-      <c r="X10" s="2">
-        <f t="shared" ref="X10" si="20">+X5-X9</f>
-        <v>-80.190412000000151</v>
-      </c>
-      <c r="Y10" s="2">
-        <f t="shared" ref="Y10" si="21">+Y5-Y9</f>
-        <v>246.79239279999956</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" ref="Z10" si="22">+Z5-Z9</f>
-        <v>418.41776335999953</v>
-      </c>
       <c r="AA10" s="2">
-        <f t="shared" ref="AA10" si="23">+AA5-AA9</f>
-        <v>636.59489723199886</v>
+        <f t="shared" ref="AA10" si="22">+AA5-AA9</f>
+        <v>-154.46100000000024</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" ref="AB10" si="24">+AB5-AB9</f>
-        <v>700.25438695519938</v>
+        <f t="shared" ref="AB10" si="23">+AB5-AB9</f>
+        <v>170.62404599999968</v>
       </c>
       <c r="AC10" s="2">
-        <f t="shared" ref="AC10" si="25">+AC5-AC9</f>
-        <v>770.27982565071943</v>
+        <f t="shared" ref="AC10" si="24">+AC5-AC9</f>
+        <v>333.13700519999952</v>
       </c>
       <c r="AD10" s="2">
-        <f>+AD5-AD9</f>
-        <v>847.30780821579083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AD10" si="25">+AD5-AD9</f>
+        <v>540.99137123999935</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" ref="AE10" si="26">+AE5-AE9</f>
+        <v>595.09050836399956</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" ref="AF10" si="27">+AF5-AF9</f>
+        <v>654.5995592003992</v>
+      </c>
+      <c r="AG10" s="2">
+        <f>+AG5-AG9</f>
+        <v>720.05951512043885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -1603,159 +1648,165 @@
         <v>20.765999999999998</v>
       </c>
       <c r="M11" s="4">
-        <f>+L11</f>
-        <v>20.765999999999998</v>
+        <f>22.471-1.433</f>
+        <v>21.038</v>
       </c>
       <c r="N11" s="4">
-        <f>+M11</f>
-        <v>20.765999999999998</v>
-      </c>
-      <c r="S11" s="2">
+        <f>87.426-5.196-M11-L11-K11</f>
+        <v>19.150000000000013</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="V11" s="2">
         <f>5.787-1.112-1.442</f>
         <v>3.2329999999999997</v>
       </c>
-      <c r="T11" s="2">
+      <c r="W11" s="2">
         <f>6.588-24.964</f>
         <v>-18.375999999999998</v>
       </c>
-      <c r="U11" s="2">
+      <c r="X11" s="2">
         <f>1.97-49.234</f>
         <v>-47.264000000000003</v>
       </c>
-      <c r="V11" s="2">
+      <c r="Y11" s="2">
         <v>10.47</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Z11" s="2">
         <f>SUM(G11:J11)</f>
         <v>57.923000000000002</v>
       </c>
-      <c r="X11" s="10">
-        <f t="shared" ref="X11:X13" si="26">SUM(K11:N11)</f>
-        <v>83.573999999999984</v>
-      </c>
-      <c r="Y11" s="2">
-        <f>+X11</f>
-        <v>83.573999999999984</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" ref="Z11:AD11" si="27">+Y11</f>
-        <v>83.573999999999984</v>
-      </c>
       <c r="AA11" s="2">
-        <f t="shared" si="27"/>
-        <v>83.573999999999984</v>
+        <f t="shared" ref="AA11:AA13" si="28">SUM(K11:N11)</f>
+        <v>82.230000000000018</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="27"/>
-        <v>83.573999999999984</v>
+        <f>+AA11</f>
+        <v>82.230000000000018</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="27"/>
-        <v>83.573999999999984</v>
+        <f t="shared" ref="AC11:AF11" si="29">+AB11</f>
+        <v>82.230000000000018</v>
       </c>
       <c r="AD11" s="2">
-        <f>+AC11</f>
-        <v>83.573999999999984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+        <f t="shared" si="29"/>
+        <v>82.230000000000018</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="29"/>
+        <v>82.230000000000018</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="29"/>
+        <v>82.230000000000018</v>
+      </c>
+      <c r="AG11" s="2">
+        <f>+AF11</f>
+        <v>82.230000000000018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="4">
-        <f>+E10+E11</f>
+        <f t="shared" ref="E12:N12" si="30">+E10+E11</f>
         <v>-41.174000000000007</v>
       </c>
       <c r="F12" s="4">
-        <f>+F10+F11</f>
+        <f t="shared" si="30"/>
         <v>-44.755000000000031</v>
       </c>
       <c r="G12" s="4">
-        <f>+G10+G11</f>
+        <f t="shared" si="30"/>
         <v>-36.768000000000043</v>
       </c>
       <c r="H12" s="4">
-        <f>+H10+H11</f>
+        <f t="shared" si="30"/>
         <v>-42.70199999999997</v>
       </c>
       <c r="I12" s="4">
-        <f>+I10+I11</f>
+        <f t="shared" si="30"/>
         <v>-22.281000000000045</v>
       </c>
       <c r="J12" s="4">
-        <f>+J10+J11</f>
+        <f t="shared" si="30"/>
         <v>-25.811000000000007</v>
       </c>
       <c r="K12" s="4">
-        <f>+K10+K11</f>
+        <f t="shared" si="30"/>
         <v>-33.274000000000072</v>
       </c>
       <c r="L12" s="4">
-        <f>+L10+L11</f>
+        <f t="shared" si="30"/>
         <v>-13.931999999999981</v>
       </c>
       <c r="M12" s="4">
-        <f>+M10+M11</f>
-        <v>25.921164000000012</v>
+        <f t="shared" si="30"/>
+        <v>-9.7559999999999825</v>
       </c>
       <c r="N12" s="4">
-        <f>+N10+N11</f>
-        <v>24.668423999999938</v>
+        <f t="shared" si="30"/>
+        <v>-15.26899999999997</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4">
-        <f t="shared" ref="S12" si="28">+S10+S11</f>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
+        <f t="shared" ref="V12" si="31">+V10+V11</f>
         <v>-104.71299999999997</v>
       </c>
-      <c r="T12" s="4">
-        <f t="shared" ref="T12:X12" si="29">+T10+T11</f>
+      <c r="W12" s="4">
+        <f t="shared" ref="W12:AA12" si="32">+W10+W11</f>
         <v>-125.14399999999998</v>
       </c>
-      <c r="U12" s="4">
-        <f t="shared" si="29"/>
+      <c r="X12" s="4">
+        <f t="shared" si="32"/>
         <v>-174.94799999999998</v>
       </c>
-      <c r="V12" s="4">
-        <f t="shared" si="29"/>
+      <c r="Y12" s="4">
+        <f t="shared" si="32"/>
         <v>-190.73300000000009</v>
       </c>
-      <c r="W12" s="4">
-        <f t="shared" si="29"/>
+      <c r="Z12" s="4">
+        <f t="shared" si="32"/>
         <v>-127.56200000000001</v>
       </c>
-      <c r="X12" s="4">
-        <f t="shared" si="29"/>
-        <v>3.3835879999998326</v>
-      </c>
-      <c r="Y12" s="4">
-        <f t="shared" ref="Y12" si="30">+Y10+Y11</f>
-        <v>330.36639279999952</v>
-      </c>
-      <c r="Z12" s="4">
-        <f t="shared" ref="Z12" si="31">+Z10+Z11</f>
-        <v>501.99176335999948</v>
-      </c>
       <c r="AA12" s="4">
-        <f t="shared" ref="AA12" si="32">+AA10+AA11</f>
-        <v>720.16889723199881</v>
+        <f t="shared" si="32"/>
+        <v>-72.231000000000222</v>
       </c>
       <c r="AB12" s="4">
         <f t="shared" ref="AB12" si="33">+AB10+AB11</f>
-        <v>783.82838695519933</v>
+        <v>252.8540459999997</v>
       </c>
       <c r="AC12" s="4">
         <f t="shared" ref="AC12" si="34">+AC10+AC11</f>
-        <v>853.85382565071939</v>
+        <v>415.36700519999954</v>
       </c>
       <c r="AD12" s="4">
         <f t="shared" ref="AD12" si="35">+AD10+AD11</f>
-        <v>930.88180821579078</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>623.22137123999937</v>
+      </c>
+      <c r="AE12" s="4">
+        <f t="shared" ref="AE12" si="36">+AE10+AE11</f>
+        <v>677.32050836399958</v>
+      </c>
+      <c r="AF12" s="4">
+        <f t="shared" ref="AF12" si="37">+AF10+AF11</f>
+        <v>736.82955920039922</v>
+      </c>
+      <c r="AG12" s="4">
+        <f t="shared" ref="AG12" si="38">+AG10+AG11</f>
+        <v>802.28951512043886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1786,245 +1837,253 @@
         <v>1.1459999999999999</v>
       </c>
       <c r="M13" s="4">
-        <f>+L13</f>
-        <v>1.1459999999999999</v>
+        <v>2.5089999999999999</v>
       </c>
       <c r="N13" s="4">
-        <f>+M13</f>
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="S13" s="2">
+        <f>7.929-M13-L13-K13</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="V13" s="2">
         <v>1.115</v>
       </c>
-      <c r="T13" s="2">
+      <c r="W13" s="2">
         <v>-5.6029999999999998</v>
       </c>
-      <c r="U13" s="2">
+      <c r="X13" s="2">
         <v>12.333</v>
       </c>
-      <c r="V13" s="2">
+      <c r="Y13" s="2">
         <v>2.6480000000000001</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Z13" s="2">
         <f>SUM(G13:J13)</f>
         <v>6.0869999999999997</v>
       </c>
-      <c r="X13" s="10">
-        <f t="shared" si="26"/>
-        <v>5.7069999999999999</v>
-      </c>
-      <c r="Y13" s="2">
-        <f>+Y12*0.1</f>
-        <v>33.036639279999953</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" ref="Z13:AD13" si="36">+Z12*0.1</f>
-        <v>50.199176335999951</v>
-      </c>
       <c r="AA13" s="2">
-        <f t="shared" si="36"/>
-        <v>72.016889723199881</v>
+        <f t="shared" si="28"/>
+        <v>7.9289999999999994</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="36"/>
-        <v>78.382838695519936</v>
+        <f>+AB12*0.1</f>
+        <v>25.285404599999971</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="36"/>
-        <v>85.38538256507195</v>
+        <f t="shared" ref="AC13:AG13" si="39">+AC12*0.1</f>
+        <v>41.536700519999954</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" si="36"/>
-        <v>93.088180821579087</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>62.322137123999937</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="39"/>
+        <v>67.732050836399964</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="39"/>
+        <v>73.68295592003993</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="39"/>
+        <v>80.228951512043892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="4">
-        <f>+E12-E13</f>
+        <f t="shared" ref="E14:N14" si="40">+E12-E13</f>
         <v>-42.546000000000006</v>
       </c>
       <c r="F14" s="4">
-        <f>+F12-F13</f>
+        <f t="shared" si="40"/>
         <v>-46.069000000000031</v>
       </c>
       <c r="G14" s="4">
-        <f>+G12-G13</f>
+        <f t="shared" si="40"/>
         <v>-38.082000000000043</v>
       </c>
       <c r="H14" s="4">
-        <f>+H12-H13</f>
+        <f t="shared" si="40"/>
         <v>-44.166999999999973</v>
       </c>
       <c r="I14" s="4">
-        <f>+I12-I13</f>
+        <f t="shared" si="40"/>
         <v>-23.535000000000046</v>
       </c>
       <c r="J14" s="4">
-        <f>+J12-J13</f>
+        <f t="shared" si="40"/>
         <v>-27.865000000000006</v>
       </c>
       <c r="K14" s="4">
-        <f>+K12-K13</f>
+        <f t="shared" si="40"/>
         <v>-35.54300000000007</v>
       </c>
       <c r="L14" s="4">
-        <f>+L12-L13</f>
+        <f t="shared" si="40"/>
         <v>-15.077999999999982</v>
       </c>
       <c r="M14" s="4">
-        <f>+M12-M13</f>
-        <v>24.775164000000011</v>
+        <f t="shared" si="40"/>
+        <v>-12.264999999999983</v>
       </c>
       <c r="N14" s="4">
-        <f>+N12-N13</f>
-        <v>23.522423999999937</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" ref="S14" si="37">+S12-S13</f>
+        <f t="shared" si="40"/>
+        <v>-17.273999999999969</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="V14" s="4">
+        <f t="shared" ref="V14" si="41">+V12-V13</f>
         <v>-105.82799999999996</v>
       </c>
-      <c r="T14" s="4">
-        <f t="shared" ref="T14:X14" si="38">+T12-T13</f>
+      <c r="W14" s="4">
+        <f t="shared" ref="W14:Z14" si="42">+W12-W13</f>
         <v>-119.54099999999998</v>
       </c>
-      <c r="U14" s="4">
-        <f t="shared" si="38"/>
+      <c r="X14" s="4">
+        <f t="shared" si="42"/>
         <v>-187.28099999999998</v>
       </c>
-      <c r="V14" s="4">
-        <f t="shared" si="38"/>
+      <c r="Y14" s="4">
+        <f t="shared" si="42"/>
         <v>-193.38100000000009</v>
       </c>
-      <c r="W14" s="4">
-        <f t="shared" si="38"/>
+      <c r="Z14" s="4">
+        <f t="shared" si="42"/>
         <v>-133.649</v>
       </c>
-      <c r="X14" s="4">
-        <f>+X12-X13+273</f>
-        <v>270.67658799999981</v>
-      </c>
-      <c r="Y14" s="4">
-        <f t="shared" ref="Y14:AD14" si="39">+Y12-Y13+273</f>
-        <v>570.32975351999949</v>
-      </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="39"/>
-        <v>724.79258702399954</v>
-      </c>
       <c r="AA14" s="4">
-        <f t="shared" si="39"/>
-        <v>921.15200750879899</v>
+        <f>+AA12-AA13+273</f>
+        <v>192.83999999999978</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="39"/>
-        <v>978.44554825967941</v>
+        <f t="shared" ref="AB14:AG14" si="43">+AB12-AB13+273</f>
+        <v>500.56864139999971</v>
       </c>
       <c r="AC14" s="4">
-        <f t="shared" si="39"/>
-        <v>1041.4684430856473</v>
+        <f t="shared" si="43"/>
+        <v>646.83030467999959</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="39"/>
-        <v>1110.7936273942119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>833.89923411599943</v>
+      </c>
+      <c r="AE14" s="4">
+        <f t="shared" si="43"/>
+        <v>882.58845752759964</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" si="43"/>
+        <v>936.14660328035927</v>
+      </c>
+      <c r="AG14" s="4">
+        <f t="shared" si="43"/>
+        <v>995.060563608395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="6">
-        <f>+E14/E16</f>
+        <f t="shared" ref="E15:N15" si="44">+E14/E16</f>
         <v>-0.13027343151964241</v>
       </c>
       <c r="F15" s="6">
-        <f>+F14/F16</f>
+        <f t="shared" si="44"/>
         <v>-0.13943866169878547</v>
       </c>
       <c r="G15" s="6">
-        <f>+G14/G16</f>
+        <f t="shared" si="44"/>
         <v>-0.11526412804300398</v>
       </c>
       <c r="H15" s="6">
-        <f>+H14/H16</f>
+        <f t="shared" si="44"/>
         <v>-0.13291423034213359</v>
       </c>
       <c r="I15" s="6">
-        <f>+I14/I16</f>
+        <f t="shared" si="44"/>
         <v>-7.0323845266624177E-2</v>
       </c>
       <c r="J15" s="6">
-        <f>+J14/J16</f>
+        <f t="shared" si="44"/>
         <v>-8.2789130602713215E-2</v>
       </c>
       <c r="K15" s="6">
-        <f>+K14/K16</f>
+        <f t="shared" si="44"/>
         <v>-0.10497573711615783</v>
       </c>
       <c r="L15" s="6">
-        <f>+L14/L16</f>
+        <f t="shared" si="44"/>
         <v>-4.4262699325990411E-2</v>
       </c>
       <c r="M15" s="6">
-        <f>+M14/M16</f>
-        <v>7.2729515511613191E-2</v>
+        <f t="shared" si="44"/>
+        <v>-3.5825281286146538E-2</v>
       </c>
       <c r="N15" s="6">
-        <f>+N14/N16</f>
-        <v>6.9051995021253421E-2</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" ref="S15" si="40">+S14/S16</f>
+        <f t="shared" si="44"/>
+        <v>-5.0595909329224802E-2</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="V15" s="1">
+        <f t="shared" ref="V15" si="45">+V14/V16</f>
         <v>-0.72333328776673511</v>
       </c>
-      <c r="T15" s="1">
-        <f>+T14/T16</f>
+      <c r="W15" s="1">
+        <f t="shared" ref="W15:AB15" si="46">+W14/W16</f>
         <v>-0.39877040703997008</v>
       </c>
-      <c r="U15" s="1">
-        <f>+U14/U16</f>
+      <c r="X15" s="1">
+        <f t="shared" si="46"/>
         <v>-0.59964267532442572</v>
       </c>
-      <c r="V15" s="1">
-        <f>+V14/V16</f>
+      <c r="Y15" s="1">
+        <f t="shared" si="46"/>
         <v>-0.59258975521861201</v>
       </c>
-      <c r="W15" s="1">
-        <f>+W14/W16</f>
+      <c r="Z15" s="1">
+        <f t="shared" si="46"/>
         <v>-0.40055925863763875</v>
       </c>
-      <c r="X15" s="1">
-        <f>+X14/X16</f>
-        <v>0.79579923955937604</v>
-      </c>
-      <c r="Y15" s="1">
-        <f>+Y14/Y16</f>
-        <v>1.6767906951350453</v>
-      </c>
-      <c r="Z15" s="1">
-        <f t="shared" ref="Z15:AD15" si="41">+Z14/Z16</f>
-        <v>2.1309171726073779</v>
-      </c>
       <c r="AA15" s="1">
-        <f t="shared" si="41"/>
-        <v>2.7082211746148337</v>
+        <f t="shared" si="46"/>
+        <v>0.56592893019652202</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="41"/>
-        <v>2.8766663160956876</v>
+        <f t="shared" si="46"/>
+        <v>1.4690223797833883</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" si="41"/>
-        <v>3.0619559717246254</v>
+        <f t="shared" ref="AC15:AG15" si="47">+AC14/AC16</f>
+        <v>1.8982575313536765</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="41"/>
-        <v>3.2657745929164559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="47"/>
+        <v>2.4472500594014059</v>
+      </c>
+      <c r="AE15" s="1">
+        <f t="shared" si="47"/>
+        <v>2.5901386723314328</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="47"/>
+        <v>2.7473161465544607</v>
+      </c>
+      <c r="AG15" s="1">
+        <f t="shared" si="47"/>
+        <v>2.9202113681997917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2055,208 +2114,215 @@
         <v>340.64800000000002</v>
       </c>
       <c r="M16" s="4">
-        <f>+L16</f>
-        <v>340.64800000000002</v>
+        <v>342.35599999999999</v>
       </c>
       <c r="N16" s="4">
-        <f>+M16</f>
-        <v>340.64800000000002</v>
-      </c>
-      <c r="S16" s="2">
+        <v>341.411</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="V16" s="2">
         <v>146.30600000000001</v>
       </c>
-      <c r="T16" s="2">
+      <c r="W16" s="2">
         <v>299.774</v>
       </c>
-      <c r="U16" s="2">
+      <c r="X16" s="2">
         <v>312.32100000000003</v>
       </c>
-      <c r="V16" s="2">
+      <c r="Y16" s="2">
         <v>326.33199999999999</v>
       </c>
-      <c r="W16" s="2">
+      <c r="Z16" s="2">
         <v>333.65600000000001</v>
       </c>
-      <c r="X16" s="2">
+      <c r="AA16" s="2">
         <f>AVERAGE(K16:N16)</f>
-        <v>340.13175000000001</v>
-      </c>
-      <c r="Y16" s="2">
-        <f>+X16</f>
-        <v>340.13175000000001</v>
-      </c>
-      <c r="Z16" s="2">
-        <f>+Y16</f>
-        <v>340.13175000000001</v>
-      </c>
-      <c r="AA16" s="2">
-        <f t="shared" ref="AA16:AD16" si="42">+Z16</f>
-        <v>340.13175000000001</v>
+        <v>340.74950000000001</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="42"/>
-        <v>340.13175000000001</v>
+        <f>+AA16</f>
+        <v>340.74950000000001</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="42"/>
-        <v>340.13175000000001</v>
+        <f>+AB16</f>
+        <v>340.74950000000001</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" si="42"/>
-        <v>340.13175000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AD16:AG16" si="48">+AC16</f>
+        <v>340.74950000000001</v>
+      </c>
+      <c r="AE16" s="2">
+        <f t="shared" si="48"/>
+        <v>340.74950000000001</v>
+      </c>
+      <c r="AF16" s="2">
+        <f t="shared" si="48"/>
+        <v>340.74950000000001</v>
+      </c>
+      <c r="AG16" s="2">
+        <f t="shared" si="48"/>
+        <v>340.74950000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="7">
-        <f>+I3/E3-1</f>
+        <f t="shared" ref="I18:N18" si="49">+I3/E3-1</f>
         <v>0.322015938106887</v>
       </c>
       <c r="J18" s="7">
-        <f>+J3/F3-1</f>
+        <f t="shared" si="49"/>
         <v>0.31952311612668383</v>
       </c>
       <c r="K18" s="7">
-        <f>+K3/G3-1</f>
+        <f t="shared" si="49"/>
         <v>0.30473679676057541</v>
       </c>
       <c r="L18" s="7">
-        <f>+L3/H3-1</f>
+        <f t="shared" si="49"/>
         <v>0.29985024019916096</v>
       </c>
       <c r="M18" s="7">
-        <f>+M3/I3-1</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="49"/>
+        <v>0.28152012943865223</v>
       </c>
       <c r="N18" s="7">
-        <f>+N3/J3-1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="T18" s="9">
-        <f>+T3/S3-1</f>
-        <v>0.50183261213426156</v>
-      </c>
-      <c r="U18" s="9">
-        <f>+U3/T3-1</f>
-        <v>0.52282170190159594</v>
-      </c>
-      <c r="V18" s="9">
-        <f>+V3/U3-1</f>
-        <v>0.48568307775743169</v>
-      </c>
+        <f t="shared" si="49"/>
+        <v>0.26973871157300011</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
       <c r="W18" s="9">
         <f>+W3/V3-1</f>
-        <v>0.32966620558405557</v>
+        <v>0.50183261213426156</v>
       </c>
       <c r="X18" s="9">
         <f>+X3/W3-1</f>
-        <v>0.30102433400552919</v>
+        <v>0.52282170190159594</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" ref="Y18:AD18" si="43">+Y3/X3-1</f>
-        <v>0.29999999999999982</v>
+        <f>+Y3/X3-1</f>
+        <v>0.48568307775743169</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="43"/>
+        <f>+Z3/Y3-1</f>
+        <v>0.32966620558405557</v>
+      </c>
+      <c r="AA18" s="9">
+        <f>+AA3/Z3-1</f>
+        <v>0.28778287172882888</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" ref="AB18:AG18" si="50">+AB3/AA3-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" si="50"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AA18" s="9">
-        <f t="shared" si="43"/>
+      <c r="AD18" s="9">
+        <f t="shared" si="50"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AB18" s="9">
-        <f t="shared" si="43"/>
+      <c r="AE18" s="9">
+        <f t="shared" si="50"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AC18" s="9">
-        <f t="shared" si="43"/>
+      <c r="AF18" s="9">
+        <f t="shared" si="50"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AD18" s="9">
-        <f t="shared" si="43"/>
+      <c r="AG18" s="9">
+        <f t="shared" si="50"/>
         <v>9.9999999999999867E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" ref="I19:N19" si="44">+I5/I3</f>
+        <f t="shared" ref="I19:L19" si="51">+I5/I3</f>
         <v>0.76737693048035915</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.7702366796975223</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.77538945911537704</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.7780252172091493</v>
       </c>
       <c r="M19" s="7">
         <f>+M5/M3</f>
-        <v>0.7599999999999999</v>
+        <v>0.77686348184764764</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" ref="N19" si="45">+N5/N3</f>
-        <v>0.76</v>
-      </c>
-      <c r="S19" s="9">
-        <f t="shared" ref="S19:T19" si="46">+S5/S3</f>
+        <f t="shared" ref="N19" si="52">+N5/N3</f>
+        <v>0.76385237459967059</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="V19" s="9">
+        <f t="shared" ref="V19" si="53">+V5/V3</f>
         <v>0.77903087568200347</v>
       </c>
-      <c r="T19" s="9">
-        <f>+T5/T3</f>
+      <c r="W19" s="9">
+        <f>+W5/W3</f>
         <v>0.76556573462101474</v>
       </c>
-      <c r="U19" s="9">
-        <f t="shared" ref="U19:X19" si="47">+U5/U3</f>
+      <c r="X19" s="9">
+        <f t="shared" ref="X19:AA19" si="54">+X5/X3</f>
         <v>0.7758559228306009</v>
       </c>
-      <c r="V19" s="9">
-        <f t="shared" si="47"/>
+      <c r="Y19" s="9">
+        <f t="shared" si="54"/>
         <v>0.76148459714060424</v>
       </c>
-      <c r="W19" s="9">
-        <f t="shared" si="47"/>
+      <c r="Z19" s="9">
+        <f t="shared" si="54"/>
         <v>0.76324952091583154</v>
       </c>
-      <c r="X19" s="9">
-        <f t="shared" si="47"/>
-        <v>0.76773786068469807</v>
-      </c>
-      <c r="Y19" s="9">
-        <f t="shared" ref="Y19:AD19" si="48">+Y5/Y3</f>
+      <c r="AA19" s="9">
+        <f t="shared" si="54"/>
+        <v>0.77322228649652736</v>
+      </c>
+      <c r="AB19" s="9">
+        <f t="shared" ref="AB19:AG19" si="55">+AB5/AB3</f>
         <v>0.77</v>
       </c>
-      <c r="Z19" s="9">
-        <f t="shared" si="48"/>
+      <c r="AC19" s="9">
+        <f t="shared" si="55"/>
         <v>0.77</v>
       </c>
-      <c r="AA19" s="9">
-        <f t="shared" si="48"/>
+      <c r="AD19" s="9">
+        <f t="shared" si="55"/>
         <v>0.77</v>
       </c>
-      <c r="AB19" s="9">
-        <f t="shared" si="48"/>
+      <c r="AE19" s="9">
+        <f t="shared" si="55"/>
         <v>0.77</v>
       </c>
-      <c r="AC19" s="9">
-        <f t="shared" si="48"/>
+      <c r="AF19" s="9">
+        <f t="shared" si="55"/>
+        <v>0.76999999999999991</v>
+      </c>
+      <c r="AG19" s="9">
+        <f t="shared" si="55"/>
         <v>0.77</v>
       </c>
-      <c r="AD19" s="9">
-        <f t="shared" si="48"/>
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
@@ -2288,45 +2354,47 @@
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-      <c r="U21" s="2">
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="X21" s="2">
         <v>64.647999999999996</v>
       </c>
-      <c r="V21" s="2">
+      <c r="Y21" s="2">
         <v>123.595</v>
       </c>
-      <c r="W21" s="2">
+      <c r="Z21" s="2">
         <v>254.40600000000001</v>
       </c>
-      <c r="X21" s="2">
-        <f>+W21*2</f>
-        <v>508.81200000000001</v>
-      </c>
-      <c r="Y21" s="2">
-        <f>+X21*2</f>
-        <v>1017.624</v>
-      </c>
-      <c r="Z21" s="2">
-        <f>+Y21*1.3</f>
-        <v>1322.9112</v>
-      </c>
       <c r="AA21" s="2">
-        <f>+Z21*1.3</f>
-        <v>1719.7845600000001</v>
+        <v>380.42899999999997</v>
       </c>
       <c r="AB21" s="2">
-        <f>+AA21*1.3</f>
-        <v>2235.719928</v>
+        <f>+AA21*2</f>
+        <v>760.85799999999995</v>
       </c>
       <c r="AC21" s="2">
         <f>+AB21*1.3</f>
-        <v>2906.4359064</v>
+        <v>989.11539999999991</v>
       </c>
       <c r="AD21" s="2">
         <f>+AC21*1.3</f>
-        <v>3778.3666783200001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1285.8500199999999</v>
+      </c>
+      <c r="AE21" s="2">
+        <f>+AD21*1.3</f>
+        <v>1671.605026</v>
+      </c>
+      <c r="AF21" s="2">
+        <f>+AE21*1.3</f>
+        <v>2173.0865337999999</v>
+      </c>
+      <c r="AG21" s="2">
+        <f>+AF21*1.3</f>
+        <v>2825.0124939399998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -2358,8 +2426,20 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="Y22" s="2">
+        <v>143.60599999999999</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>114.396</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>185.03700000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -2368,38 +2448,62 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <f>+G21-G22</f>
+        <f t="shared" ref="G23:L23" si="56">+G21-G22</f>
         <v>18.873000000000001</v>
       </c>
       <c r="H23" s="4">
-        <f>+H21-H22</f>
+        <f t="shared" si="56"/>
         <v>25.702999999999989</v>
       </c>
       <c r="I23" s="4">
-        <f>+I21-I22</f>
+        <f t="shared" si="56"/>
         <v>95.433999999999997</v>
       </c>
       <c r="J23" s="4">
-        <f>+J21-J22</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <f>+K21-K22</f>
+        <f t="shared" si="56"/>
         <v>41.522999999999996</v>
       </c>
       <c r="L23" s="4">
-        <f>+L21-L22</f>
+        <f t="shared" si="56"/>
         <v>45.190000000000012</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="Y23" s="2">
+        <f>+Y21-Y22</f>
+        <v>-20.010999999999996</v>
+      </c>
+      <c r="Z23" s="2">
+        <f>+Z21-Z22</f>
+        <v>140.01</v>
+      </c>
+      <c r="AA23" s="2">
+        <f>+AA21-AA22</f>
+        <v>195.39199999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W25">
+      <c r="Z25" s="2">
         <v>273989</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2">
+        <v>467.42</v>
       </c>
     </row>
   </sheetData>
